--- a/data/trans_camb/P19C05-Clase-trans_camb.xlsx
+++ b/data/trans_camb/P19C05-Clase-trans_camb.xlsx
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-6,7; 2,87</t>
+          <t>-7,51; 3,58</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-11,07; -1,72</t>
+          <t>-10,92; -1,81</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-10,02; -1,4</t>
+          <t>-10,24; -1,44</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-10,13; -0,06</t>
+          <t>-10,59; -0,33</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-9,67; 1,12</t>
+          <t>-9,45; 0,8</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-10,56; -1,97</t>
+          <t>-11,02; -2,07</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-7,56; -0,12</t>
+          <t>-7,35; -0,21</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-9,23; -2,25</t>
+          <t>-8,59; -1,61</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-8,45; -2,65</t>
+          <t>-8,83; -2,61</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-43,47; 24,94</t>
+          <t>-44,11; 34,06</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-66,79; -12,81</t>
+          <t>-66,21; -14,1</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-58,64; -12,47</t>
+          <t>-60,62; -10,91</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-65,02; 1,97</t>
+          <t>-67,52; -2,07</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-58,89; 12,13</t>
+          <t>-60,3; 8,69</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-62,83; -16,54</t>
+          <t>-63,37; -18,62</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-49,0; -0,34</t>
+          <t>-46,65; -0,56</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-58,58; -18,34</t>
+          <t>-56,16; -13,57</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-54,91; -22,72</t>
+          <t>-55,93; -23,17</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-1,66; 9,59</t>
+          <t>-1,82; 9,28</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-7,98; 2,92</t>
+          <t>-7,31; 3,18</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-6,06; 3,74</t>
+          <t>-6,42; 3,35</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-3,53; 5,3</t>
+          <t>-3,33; 5,16</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-5,11; 3,17</t>
+          <t>-5,05; 3,1</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-4,39; 2,76</t>
+          <t>-4,61; 2,72</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-0,78; 6,27</t>
+          <t>-0,65; 6,67</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-4,62; 1,51</t>
+          <t>-4,87; 1,74</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-3,51; 2,4</t>
+          <t>-3,51; 2,19</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-12,28; 97,54</t>
+          <t>-11,82; 93,27</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-49,75; 30,94</t>
+          <t>-50,15; 35,11</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-37,95; 40,85</t>
+          <t>-38,6; 36,46</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-39,71; 94,4</t>
+          <t>-37,09; 87,03</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-53,09; 60,03</t>
+          <t>-51,83; 58,58</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-42,34; 49,49</t>
+          <t>-45,37; 48,98</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-6,85; 76,39</t>
+          <t>-6,49; 81,99</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-40,87; 19,01</t>
+          <t>-41,09; 21,24</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-29,16; 29,11</t>
+          <t>-30,06; 26,75</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-2,12; 6,98</t>
+          <t>-2,48; 7,08</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-1,94; 7,71</t>
+          <t>-1,9; 7,57</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-11,75; 0,76</t>
+          <t>-12,83; 0,88</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>5,14; 19,85</t>
+          <t>5,99; 19,75</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-1,84; 14,56</t>
+          <t>-1,38; 15,09</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-0,76; 12,64</t>
+          <t>-1,1; 12,52</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>1,69; 9,0</t>
+          <t>1,85; 9,43</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-0,53; 7,79</t>
+          <t>-0,53; 7,6</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-9,22; 2,61</t>
+          <t>-9,52; 2,65</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-15,23; 66,57</t>
+          <t>-17,68; 68,56</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-13,55; 75,42</t>
+          <t>-13,95; 72,31</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-79,56; 7,47</t>
+          <t>-83,58; 7,79</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>31,18; 311,96</t>
+          <t>37,17; 314,33</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-18,22; 230,71</t>
+          <t>-16,91; 237,73</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-5,82; 218,38</t>
+          <t>-10,63; 196,59</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>13,57; 90,96</t>
+          <t>13,0; 94,71</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-3,82; 79,75</t>
+          <t>-3,86; 74,04</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-71,6; 22,64</t>
+          <t>-65,73; 23,81</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-4,97; 1,97</t>
+          <t>-4,6; 2,42</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-9,08; -2,36</t>
+          <t>-9,5; -2,66</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-8,35; -2,08</t>
+          <t>-8,43; -2,27</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-4,06; 3,47</t>
+          <t>-3,86; 3,58</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-9,59; -2,72</t>
+          <t>-9,38; -2,7</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-11,89; -2,72</t>
+          <t>-12,02; -3,05</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-3,61; 1,57</t>
+          <t>-3,67; 1,71</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-8,48; -3,65</t>
+          <t>-8,45; -3,64</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-9,88; -3,64</t>
+          <t>-9,69; -3,7</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-24,89; 12,3</t>
+          <t>-24,42; 15,39</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-46,73; -15,29</t>
+          <t>-47,67; -16,05</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-42,18; -13,25</t>
+          <t>-42,9; -14,65</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-25,63; 29,15</t>
+          <t>-25,6; 30,21</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-60,39; -22,35</t>
+          <t>-60,03; -21,17</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-75,29; -24,23</t>
+          <t>-73,49; -25,11</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-20,82; 10,52</t>
+          <t>-20,62; 11,96</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-47,95; -24,49</t>
+          <t>-47,77; -24,26</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-57,73; -24,99</t>
+          <t>-55,38; -24,95</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>2,38; 13,73</t>
+          <t>1,33; 12,56</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-6,87; 3,83</t>
+          <t>-6,66; 3,45</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-7,25; 2,22</t>
+          <t>-7,39; 1,87</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>3,53; 13,84</t>
+          <t>3,94; 13,62</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-6,66; 2,65</t>
+          <t>-7,01; 2,14</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-8,21; 1,02</t>
+          <t>-8,06; 0,89</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>4,26; 11,59</t>
+          <t>4,12; 11,48</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-5,51; 1,29</t>
+          <t>-5,62; 1,11</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-6,46; 0,38</t>
+          <t>-6,57; 0,08</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>11,81; 162,77</t>
+          <t>8,05; 147,59</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-45,85; 47,58</t>
+          <t>-44,03; 41,92</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-48,38; 29,46</t>
+          <t>-49,17; 22,21</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>18,95; 105,49</t>
+          <t>19,17; 102,52</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-35,4; 20,19</t>
+          <t>-37,36; 16,31</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-43,6; 6,19</t>
+          <t>-42,31; 6,11</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>24,56; 93,19</t>
+          <t>24,48; 92,41</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-34,18; 10,79</t>
+          <t>-33,65; 9,14</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-38,59; 3,21</t>
+          <t>-40,16; 0,5</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-0,05; 5,77</t>
+          <t>-0,09; 5,79</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-0,05; 6,27</t>
+          <t>0,22; 6,03</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-1,32; 5,04</t>
+          <t>-1,27; 5,03</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-3,62; 4,49</t>
+          <t>-3,76; 4,06</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-10,83; -3,14</t>
+          <t>-10,59; -3,09</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-8,74; -1,74</t>
+          <t>-8,77; -1,8</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>-2,96; 3,84</t>
+          <t>-2,9; 4,02</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-8,98; -2,68</t>
+          <t>-9,17; -2,85</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-8,04; -2,03</t>
+          <t>-7,81; -2,22</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-31,11; 1343,94</t>
+          <t>-33,02; 1234,11</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-35,07; —</t>
+          <t>-23,25; 1291,61</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-86,97; —</t>
+          <t>-86,18; —</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-15,26; 21,07</t>
+          <t>-15,45; 19,73</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-43,96; -14,29</t>
+          <t>-44,69; -15,12</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-36,3; -8,94</t>
+          <t>-35,91; -8,72</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>-14,86; 22,76</t>
+          <t>-14,71; 22,96</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-45,16; -16,08</t>
+          <t>-44,44; -15,3</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-39,85; -12,43</t>
+          <t>-39,41; -12,82</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-0,47; 3,44</t>
+          <t>-0,65; 3,4</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-4,97; -1,37</t>
+          <t>-4,68; -0,96</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-6,61; -2,22</t>
+          <t>-6,69; -2,19</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>0,11; 4,17</t>
+          <t>0,16; 4,01</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-6,51; -2,71</t>
+          <t>-6,56; -2,81</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-7,28; -3,12</t>
+          <t>-7,67; -3,25</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>0,33; 3,19</t>
+          <t>0,32; 2,99</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>-5,05; -2,3</t>
+          <t>-5,05; -2,49</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>-6,24; -3,26</t>
+          <t>-6,14; -3,23</t>
         </is>
       </c>
     </row>
@@ -2087,47 +2087,47 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-3,15; 27,52</t>
+          <t>-4,49; 26,78</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-33,72; -10,49</t>
+          <t>-32,21; -7,47</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-45,76; -18,17</t>
+          <t>-46,28; -17,11</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>0,53; 26,84</t>
+          <t>0,85; 27,19</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-37,51; -17,54</t>
+          <t>-38,1; -18,56</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-43,3; -20,84</t>
+          <t>-45,73; -21,7</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>2,16; 22,58</t>
+          <t>1,96; 20,71</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>-32,47; -16,26</t>
+          <t>-32,37; -17,02</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>-40,86; -22,82</t>
+          <t>-40,02; -22,71</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P19C05-Clase-trans_camb.xlsx
+++ b/data/trans_camb/P19C05-Clase-trans_camb.xlsx
@@ -1702,7 +1702,7 @@
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B24" s="3" t="inlineStr">
